--- a/data/pca/factorExposure/factorExposure_2008-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-19.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01965933963887286</v>
+        <v>-0.01812294883566788</v>
       </c>
       <c r="C2">
-        <v>0.01154692287766683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.013245603510406</v>
+      </c>
+      <c r="D2">
+        <v>-0.01651612630357796</v>
+      </c>
+      <c r="E2">
+        <v>0.01906843704226928</v>
+      </c>
+      <c r="F2">
+        <v>-0.01430248518443959</v>
+      </c>
+      <c r="G2">
+        <v>0.006704758256011026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07985776851143661</v>
+        <v>-0.08302217739175548</v>
       </c>
       <c r="C4">
-        <v>0.08540608187050254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08813048959482715</v>
+      </c>
+      <c r="D4">
+        <v>0.05229338598053387</v>
+      </c>
+      <c r="E4">
+        <v>0.03457176516259124</v>
+      </c>
+      <c r="F4">
+        <v>-0.009221820501757126</v>
+      </c>
+      <c r="G4">
+        <v>0.029497143022169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004563413302593539</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001223587613626476</v>
+      </c>
+      <c r="D5">
+        <v>-0.0005417713108078842</v>
+      </c>
+      <c r="E5">
+        <v>-0.006169267332492375</v>
+      </c>
+      <c r="F5">
+        <v>0.00572691408810388</v>
+      </c>
+      <c r="G5">
+        <v>-0.001780803805845597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1685714496173284</v>
+        <v>-0.1700590882287297</v>
       </c>
       <c r="C6">
-        <v>-0.0168386218329652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.008025131902340617</v>
+      </c>
+      <c r="D6">
+        <v>0.05824404086022526</v>
+      </c>
+      <c r="E6">
+        <v>-0.06127637417926535</v>
+      </c>
+      <c r="F6">
+        <v>0.04583181938093221</v>
+      </c>
+      <c r="G6">
+        <v>0.04247443530904743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05180870873853011</v>
+        <v>-0.05409552012253518</v>
       </c>
       <c r="C7">
-        <v>0.05972809879512465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06172573768306334</v>
+      </c>
+      <c r="D7">
+        <v>0.0636373205926159</v>
+      </c>
+      <c r="E7">
+        <v>0.07428911153488892</v>
+      </c>
+      <c r="F7">
+        <v>-0.06064865010414674</v>
+      </c>
+      <c r="G7">
+        <v>0.03461823197850485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04658915060085115</v>
+        <v>-0.04552389964403935</v>
       </c>
       <c r="C8">
-        <v>0.05530739595084603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05358569363429822</v>
+      </c>
+      <c r="D8">
+        <v>-0.01175193305909016</v>
+      </c>
+      <c r="E8">
+        <v>0.03304898289907144</v>
+      </c>
+      <c r="F8">
+        <v>-0.01588713369760871</v>
+      </c>
+      <c r="G8">
+        <v>-0.01058617004989415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05725277939812838</v>
+        <v>-0.06212885473738546</v>
       </c>
       <c r="C9">
-        <v>0.09346760310517868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09384268556914657</v>
+      </c>
+      <c r="D9">
+        <v>0.08909819144550667</v>
+      </c>
+      <c r="E9">
+        <v>0.04763219741240829</v>
+      </c>
+      <c r="F9">
+        <v>0.00718987860623635</v>
+      </c>
+      <c r="G9">
+        <v>0.009625330374710356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.118596398120607</v>
+        <v>-0.103803921358366</v>
       </c>
       <c r="C10">
-        <v>-0.149305567486651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1347482282747743</v>
+      </c>
+      <c r="D10">
+        <v>-0.08234968192389819</v>
+      </c>
+      <c r="E10">
+        <v>0.05630545265143915</v>
+      </c>
+      <c r="F10">
+        <v>-0.01412356736535871</v>
+      </c>
+      <c r="G10">
+        <v>-0.05259455361067633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07838045282280558</v>
+        <v>-0.07563066883161688</v>
       </c>
       <c r="C11">
-        <v>0.1378911113417805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1369641362937498</v>
+      </c>
+      <c r="D11">
+        <v>0.05192857055836221</v>
+      </c>
+      <c r="E11">
+        <v>0.06188677041234061</v>
+      </c>
+      <c r="F11">
+        <v>0.006930843934016042</v>
+      </c>
+      <c r="G11">
+        <v>-0.008013172624513053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07922384720589398</v>
+        <v>-0.07524447591957746</v>
       </c>
       <c r="C12">
-        <v>0.1658185358477026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1619204723571851</v>
+      </c>
+      <c r="D12">
+        <v>0.05167843726451586</v>
+      </c>
+      <c r="E12">
+        <v>0.06538348002079121</v>
+      </c>
+      <c r="F12">
+        <v>-0.02661024888787656</v>
+      </c>
+      <c r="G12">
+        <v>-0.01075701381753516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03810554368034885</v>
+        <v>-0.04053656560586838</v>
       </c>
       <c r="C13">
-        <v>0.07367081303738246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07630403000204659</v>
+      </c>
+      <c r="D13">
+        <v>0.03611188260480486</v>
+      </c>
+      <c r="E13">
+        <v>0.07170176936705762</v>
+      </c>
+      <c r="F13">
+        <v>-0.03838185403351174</v>
+      </c>
+      <c r="G13">
+        <v>-0.006040641707641332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02089771441441307</v>
+        <v>-0.02313587260653847</v>
       </c>
       <c r="C14">
-        <v>0.0501233870694202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05223866082691454</v>
+      </c>
+      <c r="D14">
+        <v>0.04802750575129611</v>
+      </c>
+      <c r="E14">
+        <v>0.0668496263607818</v>
+      </c>
+      <c r="F14">
+        <v>0.006198628137176979</v>
+      </c>
+      <c r="G14">
+        <v>-0.0180144618832374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03318509680403903</v>
+        <v>-0.03306646509532511</v>
       </c>
       <c r="C15">
-        <v>0.06582505762211678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06351257575935741</v>
+      </c>
+      <c r="D15">
+        <v>0.04783719708195154</v>
+      </c>
+      <c r="E15">
+        <v>0.01455621679618527</v>
+      </c>
+      <c r="F15">
+        <v>-0.02839131200694294</v>
+      </c>
+      <c r="G15">
+        <v>-0.00544733700410083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05516660992885852</v>
+        <v>-0.0538624202015513</v>
       </c>
       <c r="C16">
-        <v>0.1597596614864557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1587725004717314</v>
+      </c>
+      <c r="D16">
+        <v>0.04846144989384635</v>
+      </c>
+      <c r="E16">
+        <v>0.05112122027347624</v>
+      </c>
+      <c r="F16">
+        <v>0.02016128163563064</v>
+      </c>
+      <c r="G16">
+        <v>-0.005755870522637038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007801195312189375</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004529661105317485</v>
+      </c>
+      <c r="D17">
+        <v>-0.004133936605987833</v>
+      </c>
+      <c r="E17">
+        <v>-0.01273698215740908</v>
+      </c>
+      <c r="F17">
+        <v>-0.00602886253522451</v>
+      </c>
+      <c r="G17">
+        <v>-0.01666268620607857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04477743219686463</v>
+        <v>-0.0556485145120863</v>
       </c>
       <c r="C18">
-        <v>0.05503728590235054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04877214433122407</v>
+      </c>
+      <c r="D18">
+        <v>-0.004747416566971518</v>
+      </c>
+      <c r="E18">
+        <v>-0.060705149921348</v>
+      </c>
+      <c r="F18">
+        <v>0.02180995163119103</v>
+      </c>
+      <c r="G18">
+        <v>0.01173443904579689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05692189322525644</v>
+        <v>-0.05608053024026219</v>
       </c>
       <c r="C20">
-        <v>0.1086671120921508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1056336351184884</v>
+      </c>
+      <c r="D20">
+        <v>0.06841842745227823</v>
+      </c>
+      <c r="E20">
+        <v>0.05386340963424716</v>
+      </c>
+      <c r="F20">
+        <v>-0.01517312158877003</v>
+      </c>
+      <c r="G20">
+        <v>-0.01351458457093987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04312046750636196</v>
+        <v>-0.04493212057319648</v>
       </c>
       <c r="C21">
-        <v>0.06912786278679103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06486756615598632</v>
+      </c>
+      <c r="D21">
+        <v>0.03116578701400595</v>
+      </c>
+      <c r="E21">
+        <v>0.0548721348371399</v>
+      </c>
+      <c r="F21">
+        <v>-0.005868834688964967</v>
+      </c>
+      <c r="G21">
+        <v>0.0245132527326411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04466451564948229</v>
+        <v>-0.04507379394573905</v>
       </c>
       <c r="C22">
-        <v>0.03741584520604863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04001057960042557</v>
+      </c>
+      <c r="D22">
+        <v>-0.1138396230789935</v>
+      </c>
+      <c r="E22">
+        <v>-0.04918005653969895</v>
+      </c>
+      <c r="F22">
+        <v>0.1587273801868277</v>
+      </c>
+      <c r="G22">
+        <v>0.001695764898741592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04467439400227056</v>
+        <v>-0.04508240128949768</v>
       </c>
       <c r="C23">
-        <v>0.0374090135767325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04000468555437277</v>
+      </c>
+      <c r="D23">
+        <v>-0.1138768360429341</v>
+      </c>
+      <c r="E23">
+        <v>-0.04918234696392132</v>
+      </c>
+      <c r="F23">
+        <v>0.1587730583569577</v>
+      </c>
+      <c r="G23">
+        <v>0.001642435946595955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06469291963324605</v>
+        <v>-0.06318732137392918</v>
       </c>
       <c r="C24">
-        <v>0.1438909078054419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1405958931906625</v>
+      </c>
+      <c r="D24">
+        <v>0.05302326289206314</v>
+      </c>
+      <c r="E24">
+        <v>0.06105582297713195</v>
+      </c>
+      <c r="F24">
+        <v>-0.00128904094331766</v>
+      </c>
+      <c r="G24">
+        <v>-0.006955678569306308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07076567206097209</v>
+        <v>-0.06833130043318905</v>
       </c>
       <c r="C25">
-        <v>0.1295436204722921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1272023756633081</v>
+      </c>
+      <c r="D25">
+        <v>0.05320067497235822</v>
+      </c>
+      <c r="E25">
+        <v>0.07777868013180483</v>
+      </c>
+      <c r="F25">
+        <v>-0.03493086289723319</v>
+      </c>
+      <c r="G25">
+        <v>0.003551532668915899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05737653548359831</v>
+        <v>-0.06116430429381105</v>
       </c>
       <c r="C26">
-        <v>0.07373866323777173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0777568760008381</v>
+      </c>
+      <c r="D26">
+        <v>0.02853633531976892</v>
+      </c>
+      <c r="E26">
+        <v>0.07519034889261582</v>
+      </c>
+      <c r="F26">
+        <v>-0.02757630282304017</v>
+      </c>
+      <c r="G26">
+        <v>-0.009600343331296984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1738717388492476</v>
+        <v>-0.177661201746599</v>
       </c>
       <c r="C28">
-        <v>-0.2251862666777594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.226731082003651</v>
+      </c>
+      <c r="D28">
+        <v>0.01992806328166023</v>
+      </c>
+      <c r="E28">
+        <v>0.1483301628283128</v>
+      </c>
+      <c r="F28">
+        <v>-0.0502127975435808</v>
+      </c>
+      <c r="G28">
+        <v>-0.05155178670287291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02520785946765307</v>
+        <v>-0.02682922948487457</v>
       </c>
       <c r="C29">
-        <v>0.05499406401095559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05472742110200201</v>
+      </c>
+      <c r="D29">
+        <v>0.01378503360649567</v>
+      </c>
+      <c r="E29">
+        <v>0.0680176911044859</v>
+      </c>
+      <c r="F29">
+        <v>0.007674333319025843</v>
+      </c>
+      <c r="G29">
+        <v>-0.0196298617173782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03044552766498011</v>
+        <v>-0.03355886317553181</v>
       </c>
       <c r="C30">
-        <v>0.07006054106109499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07484051206284817</v>
+      </c>
+      <c r="D30">
+        <v>0.1313780161716691</v>
+      </c>
+      <c r="E30">
+        <v>0.05954604785877545</v>
+      </c>
+      <c r="F30">
+        <v>-0.06876684951276327</v>
+      </c>
+      <c r="G30">
+        <v>-0.01742364370239136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05382895542081999</v>
+        <v>-0.05270864877558522</v>
       </c>
       <c r="C31">
-        <v>0.03785159608430278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0400416834262862</v>
+      </c>
+      <c r="D31">
+        <v>-0.003822203433043761</v>
+      </c>
+      <c r="E31">
+        <v>0.02190147855221343</v>
+      </c>
+      <c r="F31">
+        <v>0.04724755888340498</v>
+      </c>
+      <c r="G31">
+        <v>0.02296864156416512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04234782986461896</v>
+        <v>-0.04569502159893597</v>
       </c>
       <c r="C32">
-        <v>0.05914173744424196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05756358867358731</v>
+      </c>
+      <c r="D32">
+        <v>0.01317947115359561</v>
+      </c>
+      <c r="E32">
+        <v>0.0007404610123064483</v>
+      </c>
+      <c r="F32">
+        <v>-0.03654909760755902</v>
+      </c>
+      <c r="G32">
+        <v>-0.01434392719517833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07634372638306069</v>
+        <v>-0.08058673599336884</v>
       </c>
       <c r="C33">
-        <v>0.1174082161367392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1255637192569027</v>
+      </c>
+      <c r="D33">
+        <v>0.05666230406651494</v>
+      </c>
+      <c r="E33">
+        <v>0.06023846814427255</v>
+      </c>
+      <c r="F33">
+        <v>0.01690432468235046</v>
+      </c>
+      <c r="G33">
+        <v>-0.03014212987070496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05359411250384338</v>
+        <v>-0.05244703072080585</v>
       </c>
       <c r="C34">
-        <v>0.131982217152056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1310761352863206</v>
+      </c>
+      <c r="D34">
+        <v>0.1023488578129038</v>
+      </c>
+      <c r="E34">
+        <v>0.0528248235066595</v>
+      </c>
+      <c r="F34">
+        <v>0.02215269395642545</v>
+      </c>
+      <c r="G34">
+        <v>-0.0144610531173597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02742921964685479</v>
+        <v>-0.0296757602288181</v>
       </c>
       <c r="C35">
-        <v>0.02030434120721645</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02317821899768997</v>
+      </c>
+      <c r="D35">
+        <v>0.01156326008631476</v>
+      </c>
+      <c r="E35">
+        <v>0.01853264570321358</v>
+      </c>
+      <c r="F35">
+        <v>0.003834957159749991</v>
+      </c>
+      <c r="G35">
+        <v>-0.03324756682358172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02512198315428127</v>
+        <v>-0.02756867786004269</v>
       </c>
       <c r="C36">
-        <v>0.05752288028029908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05576578837886112</v>
+      </c>
+      <c r="D36">
+        <v>0.06693018472121109</v>
+      </c>
+      <c r="E36">
+        <v>-0.0161632101432486</v>
+      </c>
+      <c r="F36">
+        <v>0.04883915111182733</v>
+      </c>
+      <c r="G36">
+        <v>-0.05855253910279929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005528257343743869</v>
+        <v>-0.004143147058830254</v>
       </c>
       <c r="C37">
-        <v>-0.0005269635020097119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.008038466316402837</v>
+      </c>
+      <c r="D37">
+        <v>0.001706711840092146</v>
+      </c>
+      <c r="E37">
+        <v>0.01146613403687913</v>
+      </c>
+      <c r="F37">
+        <v>-0.000979861963945074</v>
+      </c>
+      <c r="G37">
+        <v>0.003262457110417407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07891049637009746</v>
+        <v>-0.07408804033673901</v>
       </c>
       <c r="C39">
-        <v>0.158997623659903</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1521719597285302</v>
+      </c>
+      <c r="D39">
+        <v>0.01546517027411474</v>
+      </c>
+      <c r="E39">
+        <v>0.126983519130805</v>
+      </c>
+      <c r="F39">
+        <v>-0.001484819648047506</v>
+      </c>
+      <c r="G39">
+        <v>0.01058932294055527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04914132651430581</v>
+        <v>-0.05211764132403214</v>
       </c>
       <c r="C40">
-        <v>0.07629772411188644</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08066116228224594</v>
+      </c>
+      <c r="D40">
+        <v>0.01699332333490792</v>
+      </c>
+      <c r="E40">
+        <v>0.03434164126711067</v>
+      </c>
+      <c r="F40">
+        <v>-0.03515518550002416</v>
+      </c>
+      <c r="G40">
+        <v>-0.05384705374215978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02973741809197937</v>
+        <v>-0.02961314448814123</v>
       </c>
       <c r="C41">
-        <v>0.024099499777119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02551334361791589</v>
+      </c>
+      <c r="D41">
+        <v>-0.008360109240398511</v>
+      </c>
+      <c r="E41">
+        <v>-0.01260466795199214</v>
+      </c>
+      <c r="F41">
+        <v>-0.006158406661986505</v>
+      </c>
+      <c r="G41">
+        <v>-0.008565498455666584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04366970407190134</v>
+        <v>-0.04205729094338689</v>
       </c>
       <c r="C43">
-        <v>0.04240951241077962</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03964562224150787</v>
+      </c>
+      <c r="D43">
+        <v>-0.01787111312099917</v>
+      </c>
+      <c r="E43">
+        <v>0.01715971485363713</v>
+      </c>
+      <c r="F43">
+        <v>0.04186503531445464</v>
+      </c>
+      <c r="G43">
+        <v>-0.01069917858504981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05522623062871281</v>
+        <v>-0.05936043863923877</v>
       </c>
       <c r="C44">
-        <v>0.09205268642600611</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09440553059181225</v>
+      </c>
+      <c r="D44">
+        <v>0.3210145991686416</v>
+      </c>
+      <c r="E44">
+        <v>0.05015364453088309</v>
+      </c>
+      <c r="F44">
+        <v>0.04282126304598546</v>
+      </c>
+      <c r="G44">
+        <v>-0.1213422370469495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004884519409213768</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001216582801897885</v>
+      </c>
+      <c r="D45">
+        <v>-0.0007793011473344447</v>
+      </c>
+      <c r="E45">
+        <v>0.001648511633910765</v>
+      </c>
+      <c r="F45">
+        <v>0.0002743307563314003</v>
+      </c>
+      <c r="G45">
+        <v>0.007570366686485804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02850887589627033</v>
+        <v>-0.029713694090874</v>
       </c>
       <c r="C46">
-        <v>0.04511575598392266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04255394254408545</v>
+      </c>
+      <c r="D46">
+        <v>-0.003685968835519102</v>
+      </c>
+      <c r="E46">
+        <v>0.06434181479376418</v>
+      </c>
+      <c r="F46">
+        <v>0.02749091658898267</v>
+      </c>
+      <c r="G46">
+        <v>0.003479527388549874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05648220586465021</v>
+        <v>-0.05402002034719252</v>
       </c>
       <c r="C47">
-        <v>0.04315470413293211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04154816548683819</v>
+      </c>
+      <c r="D47">
+        <v>-0.03952453820495651</v>
+      </c>
+      <c r="E47">
+        <v>-0.009557404273198443</v>
+      </c>
+      <c r="F47">
+        <v>0.07600763115648003</v>
+      </c>
+      <c r="G47">
+        <v>0.03027166552361239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04770053457470704</v>
+        <v>-0.04949351142391617</v>
       </c>
       <c r="C48">
-        <v>0.071093134663645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.07071911025371107</v>
+      </c>
+      <c r="D48">
+        <v>0.04100768247678837</v>
+      </c>
+      <c r="E48">
+        <v>0.05914862091963605</v>
+      </c>
+      <c r="F48">
+        <v>-0.01538563257647413</v>
+      </c>
+      <c r="G48">
+        <v>0.03488774011606173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1830881635450166</v>
+        <v>-0.1906697784210236</v>
       </c>
       <c r="C49">
-        <v>-0.0255025552806705</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02245786021038767</v>
+      </c>
+      <c r="D49">
+        <v>0.02030638031050238</v>
+      </c>
+      <c r="E49">
+        <v>-0.01784923315347655</v>
+      </c>
+      <c r="F49">
+        <v>-0.1182543733959528</v>
+      </c>
+      <c r="G49">
+        <v>-0.02694148756193583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05321821695287765</v>
+        <v>-0.05273784953746924</v>
       </c>
       <c r="C50">
-        <v>0.0370585278501185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03993473935645968</v>
+      </c>
+      <c r="D50">
+        <v>0.01128749701208203</v>
+      </c>
+      <c r="E50">
+        <v>0.01278314300478927</v>
+      </c>
+      <c r="F50">
+        <v>0.03685053828928461</v>
+      </c>
+      <c r="G50">
+        <v>0.03124105051928828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1408416765060978</v>
+        <v>-0.135870299559219</v>
       </c>
       <c r="C52">
-        <v>0.03610277351853948</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03444524639104183</v>
+      </c>
+      <c r="D52">
+        <v>0.02489041876305401</v>
+      </c>
+      <c r="E52">
+        <v>-0.08023203992744174</v>
+      </c>
+      <c r="F52">
+        <v>0.1064786522750748</v>
+      </c>
+      <c r="G52">
+        <v>0.07121668238522604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1671294574920445</v>
+        <v>-0.1610426047620116</v>
       </c>
       <c r="C53">
-        <v>-0.01084655011007095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009164835053127712</v>
+      </c>
+      <c r="D53">
+        <v>0.03972168254331752</v>
+      </c>
+      <c r="E53">
+        <v>-0.1142352257608497</v>
+      </c>
+      <c r="F53">
+        <v>0.1361915179305024</v>
+      </c>
+      <c r="G53">
+        <v>0.1159444409957722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01139626826475485</v>
+        <v>-0.01331186521600808</v>
       </c>
       <c r="C54">
-        <v>0.0415559817594443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0419408894461226</v>
+      </c>
+      <c r="D54">
+        <v>0.01687903077238904</v>
+      </c>
+      <c r="E54">
+        <v>0.03754417278943067</v>
+      </c>
+      <c r="F54">
+        <v>-0.0005768590249392468</v>
+      </c>
+      <c r="G54">
+        <v>-0.004177273752204004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1216189151071754</v>
+        <v>-0.1198598138192456</v>
       </c>
       <c r="C55">
-        <v>0.01832589786304448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01922323643964353</v>
+      </c>
+      <c r="D55">
+        <v>0.0320647287694362</v>
+      </c>
+      <c r="E55">
+        <v>-0.04671810240453214</v>
+      </c>
+      <c r="F55">
+        <v>0.1586785441748221</v>
+      </c>
+      <c r="G55">
+        <v>0.1130102460039081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1800716935171679</v>
+        <v>-0.1752777510860117</v>
       </c>
       <c r="C56">
-        <v>-0.00800588784167439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.009540143712836412</v>
+      </c>
+      <c r="D56">
+        <v>-0.002963623349387893</v>
+      </c>
+      <c r="E56">
+        <v>-0.1429630621651695</v>
+      </c>
+      <c r="F56">
+        <v>0.1347466484340585</v>
+      </c>
+      <c r="G56">
+        <v>0.1443623025523511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0418827718215216</v>
+        <v>-0.04110818407353421</v>
       </c>
       <c r="C58">
-        <v>0.09751506998613679</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1081952084143965</v>
+      </c>
+      <c r="D58">
+        <v>-0.009307507980032156</v>
+      </c>
+      <c r="E58">
+        <v>0.04056121268360911</v>
+      </c>
+      <c r="F58">
+        <v>0.007321338196045647</v>
+      </c>
+      <c r="G58">
+        <v>-0.00516302783028142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1849080179697377</v>
+        <v>-0.1915500559947008</v>
       </c>
       <c r="C59">
-        <v>-0.1649804983315781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.171895652261233</v>
+      </c>
+      <c r="D59">
+        <v>-0.08432757066948342</v>
+      </c>
+      <c r="E59">
+        <v>0.0857242525602175</v>
+      </c>
+      <c r="F59">
+        <v>-0.03444747697159548</v>
+      </c>
+      <c r="G59">
+        <v>-0.007199465550049397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2074503731915152</v>
+        <v>-0.2059157299790656</v>
       </c>
       <c r="C60">
-        <v>-0.0005504299823198932</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.00309151681781168</v>
+      </c>
+      <c r="D60">
+        <v>-0.1035229719732611</v>
+      </c>
+      <c r="E60">
+        <v>-0.1233253791607278</v>
+      </c>
+      <c r="F60">
+        <v>-0.08620498333631671</v>
+      </c>
+      <c r="G60">
+        <v>0.08296099518648876</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06014443432291832</v>
+        <v>-0.0584792465914834</v>
       </c>
       <c r="C61">
-        <v>0.1352561129875903</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1314096352191842</v>
+      </c>
+      <c r="D61">
+        <v>0.01513995308885581</v>
+      </c>
+      <c r="E61">
+        <v>0.07427270477408392</v>
+      </c>
+      <c r="F61">
+        <v>-0.03069617855177472</v>
+      </c>
+      <c r="G61">
+        <v>-0.009376305873099912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1699897275471507</v>
+        <v>-0.1663784388167543</v>
       </c>
       <c r="C62">
-        <v>-0.004593931592116627</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.004642501271110801</v>
+      </c>
+      <c r="D62">
+        <v>0.0005105817096898973</v>
+      </c>
+      <c r="E62">
+        <v>-0.1223521865644386</v>
+      </c>
+      <c r="F62">
+        <v>0.1314404401652117</v>
+      </c>
+      <c r="G62">
+        <v>0.1203948122331217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0411409694541737</v>
+        <v>-0.04347540145570115</v>
       </c>
       <c r="C63">
-        <v>0.07942831530848909</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08362797014899591</v>
+      </c>
+      <c r="D63">
+        <v>0.02268504827888965</v>
+      </c>
+      <c r="E63">
+        <v>0.03700734620618855</v>
+      </c>
+      <c r="F63">
+        <v>0.002439820263808379</v>
+      </c>
+      <c r="G63">
+        <v>-0.03634973588067458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1123978963685046</v>
+        <v>-0.109978024667551</v>
       </c>
       <c r="C64">
-        <v>0.06507471821037697</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06637562776883996</v>
+      </c>
+      <c r="D64">
+        <v>0.0149730708028599</v>
+      </c>
+      <c r="E64">
+        <v>-0.05102067698938298</v>
+      </c>
+      <c r="F64">
+        <v>-0.01589618173898515</v>
+      </c>
+      <c r="G64">
+        <v>0.02081937856215127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1597130383934255</v>
+        <v>-0.1621088537636118</v>
       </c>
       <c r="C65">
-        <v>-0.0553522465693967</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04492756344155428</v>
+      </c>
+      <c r="D65">
+        <v>0.05998121220234605</v>
+      </c>
+      <c r="E65">
+        <v>-0.004397438606491761</v>
+      </c>
+      <c r="F65">
+        <v>0.04571315289646252</v>
+      </c>
+      <c r="G65">
+        <v>0.02990508903521927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09607457468234583</v>
+        <v>-0.09145248914456633</v>
       </c>
       <c r="C66">
-        <v>0.1328733509027575</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1315241606515972</v>
+      </c>
+      <c r="D66">
+        <v>0.02852757414005389</v>
+      </c>
+      <c r="E66">
+        <v>0.09573179139004663</v>
+      </c>
+      <c r="F66">
+        <v>-0.01235707021204869</v>
+      </c>
+      <c r="G66">
+        <v>-0.03343529998257667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05060639829488373</v>
+        <v>-0.04396208815416906</v>
       </c>
       <c r="C67">
-        <v>0.08457490727962354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.0776751212992083</v>
+      </c>
+      <c r="D67">
+        <v>-0.08407683008306215</v>
+      </c>
+      <c r="E67">
+        <v>-0.02701461727400968</v>
+      </c>
+      <c r="F67">
+        <v>0.06452864231365683</v>
+      </c>
+      <c r="G67">
+        <v>-0.02301649973247036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1465118243944856</v>
+        <v>-0.1466831259848813</v>
       </c>
       <c r="C68">
-        <v>-0.2497512377603056</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.245581959969126</v>
+      </c>
+      <c r="D68">
+        <v>0.03158290471718121</v>
+      </c>
+      <c r="E68">
+        <v>0.1456394758030142</v>
+      </c>
+      <c r="F68">
+        <v>-0.07617449241923799</v>
+      </c>
+      <c r="G68">
+        <v>-6.52902445903043e-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03968129303505853</v>
+        <v>-0.03779330219149369</v>
       </c>
       <c r="C69">
-        <v>0.01660247950860817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01912776812018034</v>
+      </c>
+      <c r="D69">
+        <v>-0.02178364565144802</v>
+      </c>
+      <c r="E69">
+        <v>-0.05381389895640839</v>
+      </c>
+      <c r="F69">
+        <v>0.06380796541553099</v>
+      </c>
+      <c r="G69">
+        <v>-0.01546805191732623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07554052362796197</v>
+        <v>-0.07303711633797441</v>
       </c>
       <c r="C70">
-        <v>0.09284095885235094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09519561471809745</v>
+      </c>
+      <c r="D70">
+        <v>-0.6374767728292293</v>
+      </c>
+      <c r="E70">
+        <v>-0.1030101347787305</v>
+      </c>
+      <c r="F70">
+        <v>-0.3311722686057132</v>
+      </c>
+      <c r="G70">
+        <v>0.3807556062693427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.170490896419567</v>
+        <v>-0.1722510189633725</v>
       </c>
       <c r="C71">
-        <v>-0.2533445974860116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2507368988728653</v>
+      </c>
+      <c r="D71">
+        <v>0.02477930565212666</v>
+      </c>
+      <c r="E71">
+        <v>0.150483167177597</v>
+      </c>
+      <c r="F71">
+        <v>-0.09069304993565461</v>
+      </c>
+      <c r="G71">
+        <v>-0.003840676336831652</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1450820263167907</v>
+        <v>-0.149784516436666</v>
       </c>
       <c r="C72">
-        <v>0.009910437163134262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.008972230889171659</v>
+      </c>
+      <c r="D72">
+        <v>0.03131903276291179</v>
+      </c>
+      <c r="E72">
+        <v>-0.03810889292971719</v>
+      </c>
+      <c r="F72">
+        <v>0.1166918722062585</v>
+      </c>
+      <c r="G72">
+        <v>0.01352790227969401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.186610117396861</v>
+        <v>-0.1965809506465638</v>
       </c>
       <c r="C73">
-        <v>0.0194531001098389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02232397263471666</v>
+      </c>
+      <c r="D73">
+        <v>0.002861386465135348</v>
+      </c>
+      <c r="E73">
+        <v>-0.09558119412649072</v>
+      </c>
+      <c r="F73">
+        <v>0.0306356987832699</v>
+      </c>
+      <c r="G73">
+        <v>-0.01757332694700857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08639470027580134</v>
+        <v>-0.08544710252594898</v>
       </c>
       <c r="C74">
-        <v>0.00748556840381901</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01347890979141772</v>
+      </c>
+      <c r="D74">
+        <v>0.04904254452726071</v>
+      </c>
+      <c r="E74">
+        <v>-0.08993461930652505</v>
+      </c>
+      <c r="F74">
+        <v>0.06011389852750979</v>
+      </c>
+      <c r="G74">
+        <v>0.03600971210455806</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1213060215380912</v>
+        <v>-0.1139044492451809</v>
       </c>
       <c r="C75">
-        <v>0.02697132493883096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.0272998700844858</v>
+      </c>
+      <c r="D75">
+        <v>0.003678760087535281</v>
+      </c>
+      <c r="E75">
+        <v>-0.07918088237712961</v>
+      </c>
+      <c r="F75">
+        <v>0.1548972377656588</v>
+      </c>
+      <c r="G75">
+        <v>0.07883005553125295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07918279742273081</v>
+        <v>-0.08799847171170293</v>
       </c>
       <c r="C77">
-        <v>0.1223829212291001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1263334129185007</v>
+      </c>
+      <c r="D77">
+        <v>0.05593756427521086</v>
+      </c>
+      <c r="E77">
+        <v>0.1193560666932757</v>
+      </c>
+      <c r="F77">
+        <v>-0.08912662718668139</v>
+      </c>
+      <c r="G77">
+        <v>0.09009208700409473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07591346852652953</v>
+        <v>-0.08259784865475184</v>
       </c>
       <c r="C78">
-        <v>0.1278177982984522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1296842393291382</v>
+      </c>
+      <c r="D78">
+        <v>0.03947531445286203</v>
+      </c>
+      <c r="E78">
+        <v>0.1138694820252571</v>
+      </c>
+      <c r="F78">
+        <v>0.04883058127771662</v>
+      </c>
+      <c r="G78">
+        <v>0.04090802224713617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1685461681027016</v>
+        <v>-0.1641243793024446</v>
       </c>
       <c r="C79">
-        <v>0.02137032927407255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0207902533201512</v>
+      </c>
+      <c r="D79">
+        <v>-0.003172186015423796</v>
+      </c>
+      <c r="E79">
+        <v>-0.06284396036457199</v>
+      </c>
+      <c r="F79">
+        <v>0.1276510900460481</v>
+      </c>
+      <c r="G79">
+        <v>0.07634008792583336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07738241471718092</v>
+        <v>-0.07375585387956442</v>
       </c>
       <c r="C80">
-        <v>0.08495982766393634</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.08050066912185723</v>
+      </c>
+      <c r="D80">
+        <v>0.008633814702276449</v>
+      </c>
+      <c r="E80">
+        <v>0.0476735939335206</v>
+      </c>
+      <c r="F80">
+        <v>-0.04102818367306548</v>
+      </c>
+      <c r="G80">
+        <v>-0.1118938601362016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1123309703344544</v>
+        <v>-0.1057895545162272</v>
       </c>
       <c r="C81">
-        <v>-0.01061412246744326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01041059746402581</v>
+      </c>
+      <c r="D81">
+        <v>-0.02099357304882095</v>
+      </c>
+      <c r="E81">
+        <v>-0.09670796364372621</v>
+      </c>
+      <c r="F81">
+        <v>0.1541945497443264</v>
+      </c>
+      <c r="G81">
+        <v>0.03195192130236488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.162739688504382</v>
+        <v>-0.1582811745995331</v>
       </c>
       <c r="C82">
-        <v>-0.01589269933074885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01405216023929872</v>
+      </c>
+      <c r="D82">
+        <v>0.07435836000933246</v>
+      </c>
+      <c r="E82">
+        <v>-0.1463857942686247</v>
+      </c>
+      <c r="F82">
+        <v>0.1078207165647237</v>
+      </c>
+      <c r="G82">
+        <v>0.07969494576957775</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05261803566762596</v>
+        <v>-0.04888120631536141</v>
       </c>
       <c r="C83">
-        <v>0.06481814249356306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05959228081729567</v>
+      </c>
+      <c r="D83">
+        <v>-0.03115889529627385</v>
+      </c>
+      <c r="E83">
+        <v>0.008771207777003218</v>
+      </c>
+      <c r="F83">
+        <v>-0.02022434345122334</v>
+      </c>
+      <c r="G83">
+        <v>0.00129295558276739</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04748380854439763</v>
+        <v>-0.04638496942429531</v>
       </c>
       <c r="C84">
-        <v>0.07045957467252346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.06949637222783973</v>
+      </c>
+      <c r="D84">
+        <v>-0.01584688169988166</v>
+      </c>
+      <c r="E84">
+        <v>-0.005321572204440604</v>
+      </c>
+      <c r="F84">
+        <v>0.01541391894799873</v>
+      </c>
+      <c r="G84">
+        <v>0.04165783753383515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1398624770803238</v>
+        <v>-0.134837255177056</v>
       </c>
       <c r="C85">
-        <v>0.008539747695643583</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.009607033430143689</v>
+      </c>
+      <c r="D85">
+        <v>0.06437105473708782</v>
+      </c>
+      <c r="E85">
+        <v>-0.06260106192520473</v>
+      </c>
+      <c r="F85">
+        <v>0.1338528278292608</v>
+      </c>
+      <c r="G85">
+        <v>0.07690899384705203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.07962275398112408</v>
+        <v>-0.08054021318239968</v>
       </c>
       <c r="C86">
-        <v>0.1535413942352976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1610110741395294</v>
+      </c>
+      <c r="D86">
+        <v>-0.5274084740877218</v>
+      </c>
+      <c r="E86">
+        <v>0.4505060127181924</v>
+      </c>
+      <c r="F86">
+        <v>0.3634717984842282</v>
+      </c>
+      <c r="G86">
+        <v>-0.4049367258816692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09068287138846198</v>
+        <v>-0.08597144906992346</v>
       </c>
       <c r="C87">
-        <v>0.1072399670084112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1040197056559972</v>
+      </c>
+      <c r="D87">
+        <v>0.134962779434096</v>
+      </c>
+      <c r="E87">
+        <v>0.08229661744064223</v>
+      </c>
+      <c r="F87">
+        <v>-0.2149753440782196</v>
+      </c>
+      <c r="G87">
+        <v>-0.04680664564210611</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05934504119921039</v>
+        <v>-0.05861778925947213</v>
       </c>
       <c r="C88">
-        <v>0.06374434290232368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06429583473954209</v>
+      </c>
+      <c r="D88">
+        <v>0.001482983708998512</v>
+      </c>
+      <c r="E88">
+        <v>-0.02841354874675016</v>
+      </c>
+      <c r="F88">
+        <v>0.0244015496576494</v>
+      </c>
+      <c r="G88">
+        <v>0.02879934686666389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1548112660497719</v>
+        <v>-0.1533242915604781</v>
       </c>
       <c r="C89">
-        <v>-0.1975565205905395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2041942140095721</v>
+      </c>
+      <c r="D89">
+        <v>0.02876930714067814</v>
+      </c>
+      <c r="E89">
+        <v>0.09892970558553413</v>
+      </c>
+      <c r="F89">
+        <v>-0.06102214805047873</v>
+      </c>
+      <c r="G89">
+        <v>-0.0224230475021875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1878418882494294</v>
+        <v>-0.1901010054176513</v>
       </c>
       <c r="C90">
-        <v>-0.2313839640382592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2320986669120698</v>
+      </c>
+      <c r="D90">
+        <v>0.03154987649435972</v>
+      </c>
+      <c r="E90">
+        <v>0.1744993318646537</v>
+      </c>
+      <c r="F90">
+        <v>-0.1231790159354744</v>
+      </c>
+      <c r="G90">
+        <v>-0.03676691956991494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1259898469858496</v>
+        <v>-0.1199439842116934</v>
       </c>
       <c r="C91">
-        <v>-0.020261353690691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01969943503728813</v>
+      </c>
+      <c r="D91">
+        <v>-0.04520937027659186</v>
+      </c>
+      <c r="E91">
+        <v>-0.1225475774430044</v>
+      </c>
+      <c r="F91">
+        <v>0.1774201469229253</v>
+      </c>
+      <c r="G91">
+        <v>0.02493289867462033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.177775273887908</v>
+        <v>-0.1786588309628503</v>
       </c>
       <c r="C92">
-        <v>-0.2570232620633469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2678559326038951</v>
+      </c>
+      <c r="D92">
+        <v>0.01742733368563203</v>
+      </c>
+      <c r="E92">
+        <v>0.2134276636326092</v>
+      </c>
+      <c r="F92">
+        <v>-0.0625677074786207</v>
+      </c>
+      <c r="G92">
+        <v>-0.002392174507673309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1804176906008758</v>
+        <v>-0.1867867546728108</v>
       </c>
       <c r="C93">
-        <v>-0.2212970086064201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2222666661189688</v>
+      </c>
+      <c r="D93">
+        <v>-0.002972667162849048</v>
+      </c>
+      <c r="E93">
+        <v>0.1220755052436323</v>
+      </c>
+      <c r="F93">
+        <v>-0.03672792989210144</v>
+      </c>
+      <c r="G93">
+        <v>0.03160641826047954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1192542697497872</v>
+        <v>-0.1136812374569415</v>
       </c>
       <c r="C94">
-        <v>0.03301509488543505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03316058387012568</v>
+      </c>
+      <c r="D94">
+        <v>0.002206072989163621</v>
+      </c>
+      <c r="E94">
+        <v>-0.06988457295452183</v>
+      </c>
+      <c r="F94">
+        <v>0.1464919852069205</v>
+      </c>
+      <c r="G94">
+        <v>0.06905220575929125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1190512490886529</v>
+        <v>-0.1181771214112799</v>
       </c>
       <c r="C95">
-        <v>0.108469551623037</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1190089684920183</v>
+      </c>
+      <c r="D95">
+        <v>0.0007680002522794233</v>
+      </c>
+      <c r="E95">
+        <v>0.08202619281379409</v>
+      </c>
+      <c r="F95">
+        <v>-0.009306556697504758</v>
+      </c>
+      <c r="G95">
+        <v>-0.01636575118722039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1164709074560342</v>
+        <v>-0.1144634222300084</v>
       </c>
       <c r="C96">
-        <v>0.1214042204250862</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.124673362097754</v>
+      </c>
+      <c r="D96">
+        <v>-0.04027370437264532</v>
+      </c>
+      <c r="E96">
+        <v>-0.009722770078167436</v>
+      </c>
+      <c r="F96">
+        <v>-0.06108215576169866</v>
+      </c>
+      <c r="G96">
+        <v>0.119442681288036</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2021976244894116</v>
+        <v>-0.2062242681502308</v>
       </c>
       <c r="C97">
-        <v>0.004317691533105651</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002643595558652419</v>
+      </c>
+      <c r="D97">
+        <v>-0.09071946002936961</v>
+      </c>
+      <c r="E97">
+        <v>-0.5159239340015811</v>
+      </c>
+      <c r="F97">
+        <v>-0.1933063407417477</v>
+      </c>
+      <c r="G97">
+        <v>-0.7030376520118604</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.195575761296195</v>
+        <v>-0.2033288596628833</v>
       </c>
       <c r="C98">
-        <v>0.02386657592225009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02500760232095637</v>
+      </c>
+      <c r="D98">
+        <v>-0.0787741806200897</v>
+      </c>
+      <c r="E98">
+        <v>-0.06514154617119351</v>
+      </c>
+      <c r="F98">
+        <v>-0.1910485745514167</v>
+      </c>
+      <c r="G98">
+        <v>-0.01314668392292664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.04965029925949035</v>
+        <v>-0.04985535482591048</v>
       </c>
       <c r="C99">
-        <v>0.05999252098604126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.06010847917167208</v>
+      </c>
+      <c r="D99">
+        <v>0.01699317811664284</v>
+      </c>
+      <c r="E99">
+        <v>0.02145546343867401</v>
+      </c>
+      <c r="F99">
+        <v>-0.02298226240039614</v>
+      </c>
+      <c r="G99">
+        <v>-0.009155982422240822</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1055109106994803</v>
+        <v>-0.1018867652556224</v>
       </c>
       <c r="C100">
-        <v>0.2989270700609411</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2868192586305609</v>
+      </c>
+      <c r="D100">
+        <v>0.007662436222336247</v>
+      </c>
+      <c r="E100">
+        <v>0.008799439531282871</v>
+      </c>
+      <c r="F100">
+        <v>-0.4499528971877872</v>
+      </c>
+      <c r="G100">
+        <v>0.02544380058704495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02514422094096892</v>
+        <v>-0.026770804723629</v>
       </c>
       <c r="C101">
-        <v>0.05437991387372927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05407847831809284</v>
+      </c>
+      <c r="D101">
+        <v>0.008449465629014682</v>
+      </c>
+      <c r="E101">
+        <v>0.06466107853554211</v>
+      </c>
+      <c r="F101">
+        <v>0.007031038691285072</v>
+      </c>
+      <c r="G101">
+        <v>-0.01595948769601713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
